--- a/results/mp/logistic/home-spam/confidence/42/stop-words-topk-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/home-spam/confidence/42/stop-words-topk-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="133">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,10 +40,16 @@
     <t>name</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>return</t>
   </si>
   <si>
-    <t>returned</t>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>poor</t>
   </si>
   <si>
     <t>stopped</t>
@@ -52,249 +58,306 @@
     <t>waste</t>
   </si>
   <si>
-    <t>poor</t>
+    <t>useless</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>filters</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>filters</t>
-  </si>
-  <si>
-    <t>useless</t>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>seal</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>poorly</t>
   </si>
   <si>
     <t>maybe</t>
   </si>
   <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
     <t>disappointed</t>
   </si>
   <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>cracked</t>
+  </si>
+  <si>
+    <t>spray</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>thick</t>
+  </si>
+  <si>
     <t>months</t>
   </si>
   <si>
+    <t>unless</t>
+  </si>
+  <si>
+    <t>grind</t>
+  </si>
+  <si>
+    <t>iron</t>
+  </si>
+  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>poorly</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>grind</t>
-  </si>
-  <si>
-    <t>filter</t>
+    <t>egg</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>lid</t>
+  </si>
+  <si>
+    <t>half</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>lid</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>spray</t>
+    <t>although</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>twice</t>
   </si>
   <si>
     <t>received</t>
   </si>
   <si>
-    <t>cracked</t>
+    <t>motor</t>
+  </si>
+  <si>
+    <t>otherwise</t>
+  </si>
+  <si>
+    <t>sent</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>rust</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>open</t>
   </si>
   <si>
     <t>piece</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>side</t>
-  </si>
-  <si>
-    <t>iron</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>sent</t>
-  </si>
-  <si>
-    <t>apart</t>
+    <t>less</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>machine</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>smaller</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>rust</t>
+    <t>small</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>something</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>ordered</t>
+  </si>
+  <si>
+    <t>found</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>put</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>air</t>
-  </si>
-  <si>
-    <t>sharpe</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>design</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>bottom</t>
-  </si>
-  <si>
-    <t>machine</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>smaller</t>
+    <t>even</t>
+  </si>
+  <si>
+    <t>never</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
+    <t>first</t>
+  </si>
+  <si>
     <t>would</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>looks</t>
   </si>
   <si>
     <t>get</t>
   </si>
   <si>
-    <t>water</t>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>bought</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
+    <t>use</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>use</t>
+    <t>used</t>
   </si>
   <si>
     <t>made</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>loves</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>loves</t>
+    <t>love</t>
   </si>
   <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
@@ -307,43 +370,34 @@
     <t>happy</t>
   </si>
   <si>
-    <t>glad</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>wonderful</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>ox</t>
+    <t>grip</t>
   </si>
   <si>
     <t>easy</t>
   </si>
   <si>
+    <t>keeps</t>
+  </si>
+  <si>
     <t>sturdy</t>
   </si>
   <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>ever</t>
+    <t>kitchen</t>
   </si>
   <si>
     <t>nice</t>
-  </si>
-  <si>
-    <t>kitchen</t>
   </si>
   <si>
     <t>works</t>
@@ -716,7 +770,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q80"/>
+  <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -724,10 +778,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="J1" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -785,13 +839,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9380530973451328</v>
+        <v>0.9494949494949495</v>
       </c>
       <c r="C3">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D3">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -803,19 +857,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="K3">
-        <v>0.8125</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="L3">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="M3">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -827,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -835,13 +889,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9090909090909091</v>
+        <v>0.9292035398230089</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D4">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -853,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="K4">
-        <v>0.7826086956521739</v>
+        <v>0.7578125</v>
       </c>
       <c r="L4">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="M4">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -877,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -885,13 +939,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8679245283018868</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="C5">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -903,19 +957,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="K5">
-        <v>0.7593220338983051</v>
+        <v>0.7254237288135593</v>
       </c>
       <c r="L5">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="M5">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -927,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -935,13 +989,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.864406779661017</v>
+        <v>0.92</v>
       </c>
       <c r="C6">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="D6">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -953,19 +1007,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="K6">
-        <v>0.7096774193548387</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="L6">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -977,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -985,13 +1039,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.82</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="C7">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D7">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1003,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="K7">
-        <v>0.6753246753246753</v>
+        <v>0.653250773993808</v>
       </c>
       <c r="L7">
-        <v>52</v>
+        <v>422</v>
       </c>
       <c r="M7">
-        <v>52</v>
+        <v>422</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1027,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>25</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1035,13 +1089,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7945945945945946</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="C8">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="D8">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1053,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="K8">
-        <v>0.6702786377708978</v>
+        <v>0.6493506493506493</v>
       </c>
       <c r="L8">
-        <v>433</v>
+        <v>50</v>
       </c>
       <c r="M8">
-        <v>433</v>
+        <v>50</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1077,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>213</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1085,13 +1139,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7884615384615384</v>
+        <v>0.825</v>
       </c>
       <c r="C9">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D9">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1103,19 +1157,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="K9">
-        <v>0.5757575757575758</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L9">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M9">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1127,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1135,13 +1189,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7272727272727273</v>
+        <v>0.7884615384615384</v>
       </c>
       <c r="C10">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D10">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1153,19 +1207,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="K10">
-        <v>0.4078947368421053</v>
+        <v>0.5</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="M10">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1177,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1185,13 +1239,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.725</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1203,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="K11">
-        <v>0.3873873873873874</v>
+        <v>0.3603603603603603</v>
       </c>
       <c r="L11">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M11">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1227,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1235,13 +1289,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7169811320754716</v>
+        <v>0.7675675675675676</v>
       </c>
       <c r="C12">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="D12">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1253,19 +1307,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="K12">
-        <v>0.3620689655172414</v>
+        <v>0.3390804597701149</v>
       </c>
       <c r="L12">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="M12">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N12">
         <v>0.98</v>
@@ -1277,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1306,28 +1360,28 @@
         <v>21</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="K13">
-        <v>0.3541666666666667</v>
+        <v>0.3065164923572003</v>
       </c>
       <c r="L13">
-        <v>17</v>
+        <v>381</v>
       </c>
       <c r="M13">
-        <v>17</v>
+        <v>384</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>31</v>
+        <v>862</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1335,13 +1389,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6764705882352942</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C14">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1353,19 +1407,19 @@
         <v>0</v>
       </c>
       <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K14">
+        <v>0.3013698630136986</v>
+      </c>
+      <c r="L14">
         <v>22</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K14">
-        <v>0.3209876543209876</v>
-      </c>
-      <c r="L14">
-        <v>26</v>
-      </c>
       <c r="M14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1377,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1385,13 +1439,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6201550387596899</v>
+        <v>0.6911764705882353</v>
       </c>
       <c r="C15">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="D15">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1403,19 +1457,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="K15">
-        <v>0.3150684931506849</v>
+        <v>0.2753623188405797</v>
       </c>
       <c r="L15">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M15">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1435,13 +1489,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6037735849056604</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C16">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1453,31 +1507,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="K16">
-        <v>0.3110932475884244</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="L16">
-        <v>387</v>
+        <v>21</v>
       </c>
       <c r="M16">
-        <v>389</v>
+        <v>21</v>
       </c>
       <c r="N16">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>857</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1485,13 +1539,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="C17">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="D17">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1503,19 +1557,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="K17">
-        <v>0.2463768115942029</v>
+        <v>0.2238805970149254</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1535,13 +1589,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5925925925925926</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1553,19 +1607,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="K18">
-        <v>0.2021276595744681</v>
+        <v>0.1643835616438356</v>
       </c>
       <c r="L18">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="M18">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1577,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>75</v>
+        <v>610</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1585,13 +1639,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5862068965517241</v>
+        <v>0.632183908045977</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D19">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1603,31 +1657,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="K19">
-        <v>0.1679389312977099</v>
+        <v>0.14</v>
       </c>
       <c r="L19">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M19">
         <v>22</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>109</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1635,13 +1689,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5777777777777777</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C20">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D20">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1653,31 +1707,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="K20">
-        <v>0.1565934065934066</v>
+        <v>0.1024096385542169</v>
       </c>
       <c r="L20">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="M20">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="N20">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O20">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>614</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1685,13 +1739,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5641025641025641</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="C21">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D21">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1703,31 +1757,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="K21">
-        <v>0.155688622754491</v>
+        <v>0.09134615384615384</v>
       </c>
       <c r="L21">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M21">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>141</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1735,13 +1789,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5633802816901409</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="C22">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D22">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1753,31 +1807,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="K22">
-        <v>0.1324503311258278</v>
+        <v>0.06633906633906633</v>
       </c>
       <c r="L22">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>131</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1785,13 +1839,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5632183908045977</v>
+        <v>0.6025641025641025</v>
       </c>
       <c r="C23">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D23">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1803,31 +1857,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="K23">
-        <v>0.1287878787878788</v>
+        <v>0.04806408544726302</v>
       </c>
       <c r="L23">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="M23">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="N23">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="O23">
-        <v>0.06000000000000005</v>
+        <v>0.14</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>115</v>
+        <v>713</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1835,13 +1889,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5444444444444444</v>
+        <v>0.6</v>
       </c>
       <c r="C24">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D24">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1853,31 +1907,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="K24">
-        <v>0.08353808353808354</v>
+        <v>0.04096385542168675</v>
       </c>
       <c r="L24">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="M24">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="N24">
-        <v>0.97</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O24">
-        <v>0.03000000000000003</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>373</v>
+        <v>398</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1885,13 +1939,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5398230088495575</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C25">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D25">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1903,31 +1957,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="K25">
-        <v>0.0821256038647343</v>
+        <v>0.03727506426735219</v>
       </c>
       <c r="L25">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="M25">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="N25">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="O25">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>190</v>
+        <v>749</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1935,13 +1989,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5135135135135135</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="C26">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D26">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1953,31 +2007,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="K26">
-        <v>0.04793608521970705</v>
+        <v>0.03243243243243243</v>
       </c>
       <c r="L26">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N26">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="O26">
-        <v>0.09999999999999998</v>
+        <v>0.12</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>715</v>
+        <v>895</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1985,13 +2039,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4545454545454545</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C27">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D27">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2003,31 +2057,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>18</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K27">
-        <v>0.04326923076923077</v>
-      </c>
-      <c r="L27">
-        <v>18</v>
-      </c>
-      <c r="M27">
-        <v>21</v>
-      </c>
-      <c r="N27">
-        <v>0.86</v>
-      </c>
-      <c r="O27">
-        <v>0.14</v>
-      </c>
-      <c r="P27" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q27">
-        <v>398</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2035,13 +2065,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4423076923076923</v>
+        <v>0.5633802816901409</v>
       </c>
       <c r="C28">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D28">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2053,31 +2083,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>58</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K28">
-        <v>0.03722721437740693</v>
-      </c>
-      <c r="L28">
-        <v>29</v>
-      </c>
-      <c r="M28">
-        <v>32</v>
-      </c>
-      <c r="N28">
-        <v>0.91</v>
-      </c>
-      <c r="O28">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="P28" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q28">
-        <v>750</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2085,13 +2091,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4411764705882353</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C29">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D29">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2103,31 +2109,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>19</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K29">
-        <v>0.03135135135135135</v>
-      </c>
-      <c r="L29">
-        <v>29</v>
-      </c>
-      <c r="M29">
-        <v>33</v>
-      </c>
-      <c r="N29">
-        <v>0.88</v>
-      </c>
-      <c r="O29">
-        <v>0.12</v>
-      </c>
-      <c r="P29" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q29">
-        <v>896</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2135,13 +2117,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.404040404040404</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="C30">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="D30">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2153,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>59</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2161,13 +2143,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3980582524271845</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C31">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D31">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2179,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>62</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2187,25 +2169,25 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3798882681564246</v>
+        <v>0.5374149659863946</v>
       </c>
       <c r="C32">
+        <v>79</v>
+      </c>
+      <c r="D32">
+        <v>80</v>
+      </c>
+      <c r="E32">
+        <v>0.01</v>
+      </c>
+      <c r="F32">
+        <v>0.99</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32">
         <v>68</v>
-      </c>
-      <c r="D32">
-        <v>68</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2213,25 +2195,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.358974358974359</v>
+        <v>0.504424778761062</v>
       </c>
       <c r="C33">
+        <v>57</v>
+      </c>
+      <c r="D33">
+        <v>57</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33">
         <v>56</v>
-      </c>
-      <c r="D33">
-        <v>56</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2239,13 +2221,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3518518518518519</v>
+        <v>0.5</v>
       </c>
       <c r="C34">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D34">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2257,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2265,13 +2247,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3333333333333333</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="C35">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D35">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2283,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2291,25 +2273,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3269230769230769</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="C36">
+        <v>16</v>
+      </c>
+      <c r="D36">
+        <v>16</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36">
         <v>17</v>
-      </c>
-      <c r="D36">
-        <v>17</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2317,13 +2299,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3090909090909091</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C37">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D37">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2335,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2343,13 +2325,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3076923076923077</v>
+        <v>0.4423076923076923</v>
       </c>
       <c r="C38">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D38">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2361,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2369,13 +2351,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2722371967654987</v>
+        <v>0.4423076923076923</v>
       </c>
       <c r="C39">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="D39">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2387,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>270</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2395,13 +2377,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2716049382716049</v>
+        <v>0.4271844660194175</v>
       </c>
       <c r="C40">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D40">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2421,13 +2403,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2619047619047619</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C41">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D41">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2439,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>93</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2447,7 +2429,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2542372881355932</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C42">
         <v>15</v>
@@ -2465,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2473,13 +2455,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2542372881355932</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C43">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D43">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2491,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2499,7 +2481,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2542372881355932</v>
+        <v>0.3658536585365854</v>
       </c>
       <c r="C44">
         <v>15</v>
@@ -2517,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2525,13 +2507,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.25</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="C45">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D45">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2543,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>150</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2551,13 +2533,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2450331125827815</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C46">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D46">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2569,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>114</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2577,7 +2559,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2424242424242424</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="C47">
         <v>16</v>
@@ -2595,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2603,25 +2585,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2337662337662338</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C48">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D48">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E48">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2629,13 +2611,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.23</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C49">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D49">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2647,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2655,13 +2637,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2298850574712644</v>
+        <v>0.329608938547486</v>
       </c>
       <c r="C50">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="D50">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2673,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>67</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2681,13 +2663,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2289156626506024</v>
+        <v>0.3289473684210527</v>
       </c>
       <c r="C51">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D51">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2699,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2707,13 +2689,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2164948453608248</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="C52">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D52">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2725,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>76</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2733,13 +2715,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2142857142857143</v>
+        <v>0.3232323232323233</v>
       </c>
       <c r="C53">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D53">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2751,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>165</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2759,25 +2741,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2006802721088435</v>
+        <v>0.3218390804597701</v>
       </c>
       <c r="C54">
+        <v>28</v>
+      </c>
+      <c r="D54">
+        <v>28</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54">
         <v>59</v>
-      </c>
-      <c r="D54">
-        <v>59</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>235</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2785,13 +2767,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1973684210526316</v>
+        <v>0.3</v>
       </c>
       <c r="C55">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="D55">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2803,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>61</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2811,13 +2793,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1793103448275862</v>
+        <v>0.29</v>
       </c>
       <c r="C56">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D56">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2829,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>119</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2837,13 +2819,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1720430107526882</v>
+        <v>0.288659793814433</v>
       </c>
       <c r="C57">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D57">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2855,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>154</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2863,7 +2845,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1717171717171717</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="C58">
         <v>17</v>
@@ -2881,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>82</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2889,13 +2871,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1711711711711712</v>
+        <v>0.2771084337349398</v>
       </c>
       <c r="C59">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D59">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2907,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>92</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2915,13 +2897,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1504424778761062</v>
+        <v>0.2566371681415929</v>
       </c>
       <c r="C60">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D60">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2933,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2941,13 +2923,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.145631067961165</v>
+        <v>0.2516556291390729</v>
       </c>
       <c r="C61">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D61">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2959,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>88</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2967,13 +2949,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1353711790393013</v>
+        <v>0.25</v>
       </c>
       <c r="C62">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D62">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2985,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>198</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2993,25 +2975,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1267029972752044</v>
+        <v>0.245</v>
       </c>
       <c r="C63">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="D63">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="E63">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>641</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3019,13 +3001,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1204013377926421</v>
+        <v>0.2427184466019418</v>
       </c>
       <c r="C64">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D64">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3037,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>263</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3045,13 +3027,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1179775280898876</v>
+        <v>0.2345013477088949</v>
       </c>
       <c r="C65">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="D65">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3063,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>157</v>
+        <v>284</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3071,13 +3053,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1151515151515152</v>
+        <v>0.2074829931972789</v>
       </c>
       <c r="C66">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="D66">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3089,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>146</v>
+        <v>233</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3097,25 +3079,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1109660574412533</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="C67">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="D67">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="E67">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>681</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3123,13 +3105,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1098901098901099</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="C68">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D68">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3141,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>162</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3149,13 +3131,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1060606060606061</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="C69">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D69">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3167,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>177</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3175,25 +3157,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1059602649006623</v>
+        <v>0.1837837837837838</v>
       </c>
       <c r="C70">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D70">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E70">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="F70">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3201,13 +3183,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1024390243902439</v>
+        <v>0.1809523809523809</v>
       </c>
       <c r="C71">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D71">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3219,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>368</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3227,25 +3209,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09944751381215469</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="C72">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D72">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E72">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>163</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3253,13 +3235,13 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.05583756345177665</v>
+        <v>0.1711711711711712</v>
       </c>
       <c r="C73">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D73">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3271,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>372</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3279,25 +3261,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.05322128851540616</v>
+        <v>0.1703296703296703</v>
       </c>
       <c r="C74">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D74">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E74">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>338</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3305,25 +3287,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.04901960784313725</v>
+        <v>0.1616161616161616</v>
       </c>
       <c r="C75">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D75">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E75">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>388</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3331,25 +3313,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.04608695652173913</v>
+        <v>0.1550387596899225</v>
       </c>
       <c r="C76">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D76">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E76">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>1097</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3357,25 +3339,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.04600484261501211</v>
+        <v>0.1507936507936508</v>
       </c>
       <c r="C77">
         <v>19</v>
       </c>
       <c r="D77">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E77">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>394</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3383,25 +3365,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04419889502762431</v>
+        <v>0.1460674157303371</v>
       </c>
       <c r="C78">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D78">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E78">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>346</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3409,25 +3391,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.0367504835589942</v>
+        <v>0.1310344827586207</v>
       </c>
       <c r="C79">
         <v>19</v>
       </c>
       <c r="D79">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E79">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="G79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>498</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3435,25 +3417,571 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.02913533834586466</v>
+        <v>0.1310043668122271</v>
       </c>
       <c r="C80">
+        <v>30</v>
+      </c>
+      <c r="D80">
+        <v>30</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81">
+        <v>0.1262626262626263</v>
+      </c>
+      <c r="C81">
+        <v>25</v>
+      </c>
+      <c r="D81">
+        <v>25</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82">
+        <v>0.121418826739427</v>
+      </c>
+      <c r="C82">
+        <v>89</v>
+      </c>
+      <c r="D82">
+        <v>91</v>
+      </c>
+      <c r="E82">
+        <v>0.02</v>
+      </c>
+      <c r="F82">
+        <v>0.98</v>
+      </c>
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83">
+        <v>0.119205298013245</v>
+      </c>
+      <c r="C83">
+        <v>18</v>
+      </c>
+      <c r="D83">
+        <v>19</v>
+      </c>
+      <c r="E83">
+        <v>0.05</v>
+      </c>
+      <c r="F83">
+        <v>0.95</v>
+      </c>
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84">
+        <v>0.1090909090909091</v>
+      </c>
+      <c r="C84">
+        <v>18</v>
+      </c>
+      <c r="D84">
+        <v>18</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85">
+        <v>0.1036789297658863</v>
+      </c>
+      <c r="C85">
         <v>31</v>
       </c>
-      <c r="D80">
+      <c r="D85">
+        <v>31</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86">
+        <v>0.1029986962190352</v>
+      </c>
+      <c r="C86">
+        <v>79</v>
+      </c>
+      <c r="D86">
+        <v>79</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" t="b">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87">
+        <v>0.1020408163265306</v>
+      </c>
+      <c r="C87">
+        <v>15</v>
+      </c>
+      <c r="D87">
+        <v>15</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" t="b">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88">
+        <v>0.09944751381215469</v>
+      </c>
+      <c r="C88">
+        <v>18</v>
+      </c>
+      <c r="D88">
+        <v>19</v>
+      </c>
+      <c r="E88">
+        <v>0.05</v>
+      </c>
+      <c r="F88">
+        <v>0.95</v>
+      </c>
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89">
+        <v>0.09941520467836257</v>
+      </c>
+      <c r="C89">
+        <v>17</v>
+      </c>
+      <c r="D89">
+        <v>17</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90">
+        <v>0.09535452322738386</v>
+      </c>
+      <c r="C90">
         <v>39</v>
       </c>
-      <c r="E80">
-        <v>0.21</v>
-      </c>
-      <c r="F80">
-        <v>0.79</v>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80">
-        <v>1033</v>
+      <c r="D90">
+        <v>40</v>
+      </c>
+      <c r="E90">
+        <v>0.03</v>
+      </c>
+      <c r="F90">
+        <v>0.97</v>
+      </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="C91">
+        <v>16</v>
+      </c>
+      <c r="D91">
+        <v>16</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91" t="b">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92">
+        <v>0.08648648648648649</v>
+      </c>
+      <c r="C92">
+        <v>16</v>
+      </c>
+      <c r="D92">
+        <v>16</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93">
+        <v>0.07011070110701106</v>
+      </c>
+      <c r="C93">
+        <v>19</v>
+      </c>
+      <c r="D93">
+        <v>20</v>
+      </c>
+      <c r="E93">
+        <v>0.05</v>
+      </c>
+      <c r="F93">
+        <v>0.95</v>
+      </c>
+      <c r="G93" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="C94">
+        <v>23</v>
+      </c>
+      <c r="D94">
+        <v>23</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94" t="b">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95">
+        <v>0.06356968215158924</v>
+      </c>
+      <c r="C95">
+        <v>26</v>
+      </c>
+      <c r="D95">
+        <v>28</v>
+      </c>
+      <c r="E95">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F95">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96">
+        <v>0.05597964376590331</v>
+      </c>
+      <c r="C96">
+        <v>22</v>
+      </c>
+      <c r="D96">
+        <v>23</v>
+      </c>
+      <c r="E96">
+        <v>0.04</v>
+      </c>
+      <c r="F96">
+        <v>0.96</v>
+      </c>
+      <c r="G96" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97">
+        <v>0.04969485614646905</v>
+      </c>
+      <c r="C97">
+        <v>57</v>
+      </c>
+      <c r="D97">
+        <v>67</v>
+      </c>
+      <c r="E97">
+        <v>0.15</v>
+      </c>
+      <c r="F97">
+        <v>0.85</v>
+      </c>
+      <c r="G97" t="b">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98">
+        <v>0.0446927374301676</v>
+      </c>
+      <c r="C98">
+        <v>16</v>
+      </c>
+      <c r="D98">
+        <v>16</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98" t="b">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99">
+        <v>0.03682170542635659</v>
+      </c>
+      <c r="C99">
+        <v>19</v>
+      </c>
+      <c r="D99">
+        <v>25</v>
+      </c>
+      <c r="E99">
+        <v>0.24</v>
+      </c>
+      <c r="F99">
+        <v>0.76</v>
+      </c>
+      <c r="G99" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100">
+        <v>0.03667481662591687</v>
+      </c>
+      <c r="C100">
+        <v>15</v>
+      </c>
+      <c r="D100">
+        <v>20</v>
+      </c>
+      <c r="E100">
+        <v>0.25</v>
+      </c>
+      <c r="F100">
+        <v>0.75</v>
+      </c>
+      <c r="G100" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101">
+        <v>0.02626641651031895</v>
+      </c>
+      <c r="C101">
+        <v>28</v>
+      </c>
+      <c r="D101">
+        <v>34</v>
+      </c>
+      <c r="E101">
+        <v>0.18</v>
+      </c>
+      <c r="F101">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="G101" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>1038</v>
       </c>
     </row>
   </sheetData>
